--- a/fiche_securite_modele.xlsx
+++ b/fiche_securite_modele.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0E0BD-2894-441E-B9B3-71355C1A41CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39DA0B-9917-44CA-9181-2140FC3D4D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28350" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -657,6 +657,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -793,6 +808,162 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,166 +979,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1480,7 @@
   <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="BE10" sqref="BE10"/>
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1488,7 @@
     <col min="1" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1494,11 +1509,11 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -1506,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
       <c r="Q2" s="35"/>
@@ -1518,7 +1533,7 @@
       <c r="W2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="3"/>
+      <c r="X2" s="12"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="42"/>
@@ -1564,12 +1579,12 @@
         <v>5</v>
       </c>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="98" t="s">
+      <c r="Z3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
@@ -1663,80 +1678,80 @@
       <c r="AJ5" s="4"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -2017,94 +2032,94 @@
       <c r="AJ14" s="4"/>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="75" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="75" t="s">
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="76"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="79" t="s">
+      <c r="W17" s="48"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="75" t="s">
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="77"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="49"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -2116,9 +2131,9 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="39"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
@@ -2128,9 +2143,9 @@
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="38"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="93"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="55"/>
       <c r="Y18" s="39"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
@@ -2140,59 +2155,59 @@
       <c r="AE18" s="35"/>
       <c r="AF18" s="35"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="94"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="56"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="75" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79" t="s">
+      <c r="K19" s="48"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="75" t="s">
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="W19" s="76"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="79" t="s">
+      <c r="W19" s="48"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="75" t="s">
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="77"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="49"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
@@ -2204,9 +2219,9 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="93"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="55"/>
       <c r="M20" s="39"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
@@ -2216,9 +2231,9 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="38"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="93"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="55"/>
       <c r="Y20" s="39"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
@@ -2228,9 +2243,9 @@
       <c r="AE20" s="35"/>
       <c r="AF20" s="35"/>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="94"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="56"/>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -2242,9 +2257,9 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
       <c r="M21" s="37"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
@@ -2254,9 +2269,9 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="73"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="59"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
@@ -2266,9 +2281,9 @@
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
       <c r="AG21" s="38"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="74"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="60"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
@@ -2280,9 +2295,9 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="38"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="37"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
@@ -2292,9 +2307,9 @@
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="73"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="59"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
@@ -2304,9 +2319,9 @@
       <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
       <c r="AG22" s="38"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="74"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="60"/>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
@@ -2318,9 +2333,9 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
       <c r="M23" s="37"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
@@ -2330,9 +2345,9 @@
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="73"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="59"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
@@ -2342,9 +2357,9 @@
       <c r="AE23" s="35"/>
       <c r="AF23" s="35"/>
       <c r="AG23" s="38"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="74"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="60"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
@@ -2450,101 +2465,101 @@
       <c r="AI25" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AJ25" s="70"/>
+      <c r="AJ25" s="73"/>
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="51" t="s">
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="52"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="78"/>
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56" t="s">
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54" t="s">
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="56" t="s">
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54" t="s">
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="57"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="71"/>
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2553,154 +2568,154 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54" t="s">
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="23" t="s">
         <v>21</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
-      <c r="Q28" s="54" t="s">
+      <c r="Q28" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54" t="s">
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="55"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="72"/>
       <c r="Y28" s="23" t="s">
         <v>21</v>
       </c>
       <c r="Z28" s="22"/>
       <c r="AA28" s="22"/>
       <c r="AB28" s="22"/>
-      <c r="AC28" s="54" t="s">
+      <c r="AC28" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54" t="s">
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="57"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="71"/>
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84" t="s">
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="24"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="84" t="s">
+      <c r="Q29" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84" t="s">
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="85"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="90"/>
       <c r="Y29" s="24"/>
       <c r="Z29" s="25"/>
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
-      <c r="AC29" s="84" t="s">
+      <c r="AC29" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84" t="s">
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="86"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="89"/>
+      <c r="AJ29" s="91"/>
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="87" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="87" t="s">
+      <c r="K30" s="82"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="87" t="s">
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="W30" s="88"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="80" t="s">
+      <c r="W30" s="82"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="83" t="s">
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="82"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="87"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
@@ -2712,9 +2727,9 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="38"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="39"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
@@ -2724,9 +2739,9 @@
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="73"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="59"/>
       <c r="Y31" s="37"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
@@ -2736,59 +2751,59 @@
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
       <c r="AG31" s="38"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="72"/>
-      <c r="AJ31" s="74"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="60"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="75" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="76"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="75" t="s">
+      <c r="K32" s="48"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="75" t="s">
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="W32" s="76"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="79" t="s">
+      <c r="W32" s="48"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="76"/>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="75" t="s">
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="77"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="49"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -2800,9 +2815,9 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="39"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
@@ -2812,9 +2827,9 @@
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="73"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="59"/>
       <c r="Y33" s="37"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="35"/>
@@ -2824,9 +2839,9 @@
       <c r="AE33" s="35"/>
       <c r="AF33" s="35"/>
       <c r="AG33" s="38"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="74"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="60"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -2838,9 +2853,9 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
       <c r="M34" s="39"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
@@ -2850,9 +2865,9 @@
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="73"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="59"/>
       <c r="Y34" s="37"/>
       <c r="Z34" s="35"/>
       <c r="AA34" s="35"/>
@@ -2862,9 +2877,9 @@
       <c r="AE34" s="35"/>
       <c r="AF34" s="35"/>
       <c r="AG34" s="38"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="74"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="60"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -2876,9 +2891,9 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="38"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
       <c r="M35" s="39"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
@@ -2888,9 +2903,9 @@
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="38"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="73"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="59"/>
       <c r="Y35" s="37"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="35"/>
@@ -2900,9 +2915,9 @@
       <c r="AE35" s="35"/>
       <c r="AF35" s="35"/>
       <c r="AG35" s="38"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="74"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="60"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -2914,9 +2929,9 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
       <c r="M36" s="39"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
@@ -2926,9 +2941,9 @@
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="38"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="73"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="59"/>
       <c r="Y36" s="37"/>
       <c r="Z36" s="35"/>
       <c r="AA36" s="35"/>
@@ -2938,9 +2953,9 @@
       <c r="AE36" s="35"/>
       <c r="AF36" s="35"/>
       <c r="AG36" s="38"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="74"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="60"/>
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
@@ -3046,101 +3061,101 @@
       <c r="AI38" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AJ38" s="70"/>
+      <c r="AJ38" s="73"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="51" t="s">
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="51" t="s">
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="52"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="78"/>
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="56" t="s">
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54" t="s">
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="56" t="s">
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54" t="s">
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="70"/>
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="57"/>
+      <c r="AH40" s="70"/>
+      <c r="AI40" s="70"/>
+      <c r="AJ40" s="71"/>
     </row>
     <row r="41" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -3149,154 +3164,154 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54" t="s">
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="55"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="72"/>
       <c r="M41" s="23" t="s">
         <v>21</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="54" t="s">
+      <c r="Q41" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54" t="s">
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="57"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="71"/>
       <c r="Y41" s="23" t="s">
         <v>21</v>
       </c>
       <c r="Z41" s="22"/>
       <c r="AA41" s="22"/>
       <c r="AB41" s="22"/>
-      <c r="AC41" s="54" t="s">
+      <c r="AC41" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54" t="s">
+      <c r="AD41" s="70"/>
+      <c r="AE41" s="70"/>
+      <c r="AF41" s="70"/>
+      <c r="AG41" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AH41" s="54"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="57"/>
+      <c r="AH41" s="70"/>
+      <c r="AI41" s="70"/>
+      <c r="AJ41" s="71"/>
     </row>
     <row r="42" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84" t="s">
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="90"/>
       <c r="M42" s="24"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
-      <c r="Q42" s="84" t="s">
+      <c r="Q42" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84" t="s">
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84"/>
-      <c r="X42" s="86"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="91"/>
       <c r="Y42" s="24"/>
       <c r="Z42" s="25"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
-      <c r="AC42" s="84" t="s">
+      <c r="AC42" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="AD42" s="84"/>
-      <c r="AE42" s="84"/>
-      <c r="AF42" s="84"/>
-      <c r="AG42" s="84" t="s">
+      <c r="AD42" s="89"/>
+      <c r="AE42" s="89"/>
+      <c r="AF42" s="89"/>
+      <c r="AG42" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="AH42" s="84"/>
-      <c r="AI42" s="84"/>
-      <c r="AJ42" s="86"/>
+      <c r="AH42" s="89"/>
+      <c r="AI42" s="89"/>
+      <c r="AJ42" s="91"/>
     </row>
     <row r="43" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="75" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="76"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="75" t="s">
+      <c r="K43" s="48"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="75" t="s">
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="W43" s="76"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="80" t="s">
+      <c r="W43" s="48"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="81"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="81"/>
-      <c r="AF43" s="81"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="83" t="s">
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="86"/>
+      <c r="AD43" s="86"/>
+      <c r="AE43" s="86"/>
+      <c r="AF43" s="86"/>
+      <c r="AG43" s="87"/>
+      <c r="AH43" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AI43" s="81"/>
-      <c r="AJ43" s="82"/>
+      <c r="AI43" s="86"/>
+      <c r="AJ43" s="87"/>
     </row>
     <row r="44" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
@@ -3308,9 +3323,9 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="38"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="73"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="59"/>
       <c r="M44" s="39"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
@@ -3320,9 +3335,9 @@
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="38"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="73"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="59"/>
       <c r="Y44" s="39"/>
       <c r="Z44" s="35"/>
       <c r="AA44" s="35"/>
@@ -3332,59 +3347,59 @@
       <c r="AE44" s="35"/>
       <c r="AF44" s="35"/>
       <c r="AG44" s="38"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="74"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="60"/>
     </row>
     <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="75" t="s">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="75" t="s">
+      <c r="K45" s="48"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="75" t="s">
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="W45" s="76"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="79" t="s">
+      <c r="W45" s="48"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="77"/>
-      <c r="AH45" s="75" t="s">
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="77"/>
+      <c r="AI45" s="48"/>
+      <c r="AJ45" s="49"/>
     </row>
     <row r="46" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
@@ -3396,9 +3411,9 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="38"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="73"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="59"/>
       <c r="M46" s="37"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
@@ -3408,9 +3423,9 @@
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="38"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="73"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="59"/>
       <c r="Y46" s="37"/>
       <c r="Z46" s="35"/>
       <c r="AA46" s="35"/>
@@ -3420,9 +3435,9 @@
       <c r="AE46" s="35"/>
       <c r="AF46" s="35"/>
       <c r="AG46" s="38"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="74"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="60"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
@@ -3434,9 +3449,9 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="73"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
       <c r="M47" s="39"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
@@ -3446,9 +3461,9 @@
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="38"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="73"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="59"/>
       <c r="Y47" s="37"/>
       <c r="Z47" s="35"/>
       <c r="AA47" s="35"/>
@@ -3458,9 +3473,9 @@
       <c r="AE47" s="35"/>
       <c r="AF47" s="35"/>
       <c r="AG47" s="38"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="72"/>
-      <c r="AJ47" s="74"/>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="60"/>
     </row>
     <row r="48" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
@@ -3472,9 +3487,9 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="73"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="59"/>
       <c r="M48" s="39"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
@@ -3484,9 +3499,9 @@
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="38"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="73"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="59"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="35"/>
       <c r="AA48" s="35"/>
@@ -3496,9 +3511,9 @@
       <c r="AE48" s="35"/>
       <c r="AF48" s="35"/>
       <c r="AG48" s="38"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="74"/>
+      <c r="AH48" s="57"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="60"/>
     </row>
     <row r="49" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
@@ -3510,9 +3525,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="38"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="73"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
       <c r="M49" s="39"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
@@ -3522,9 +3537,9 @@
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="38"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="73"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="59"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="35"/>
       <c r="AA49" s="35"/>
@@ -3534,9 +3549,9 @@
       <c r="AE49" s="35"/>
       <c r="AF49" s="35"/>
       <c r="AG49" s="38"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="72"/>
-      <c r="AJ49" s="74"/>
+      <c r="AH49" s="57"/>
+      <c r="AI49" s="58"/>
+      <c r="AJ49" s="60"/>
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
@@ -3642,101 +3657,101 @@
       <c r="AI51" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AJ51" s="70"/>
+      <c r="AJ51" s="73"/>
     </row>
     <row r="52" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="51" t="s">
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="51" t="s">
+      <c r="N52" s="75"/>
+      <c r="O52" s="75"/>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="75"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="75"/>
+      <c r="U52" s="75"/>
+      <c r="V52" s="75"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="49"/>
-      <c r="AC52" s="49"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="49"/>
-      <c r="AI52" s="49"/>
-      <c r="AJ52" s="52"/>
+      <c r="Z52" s="75"/>
+      <c r="AA52" s="75"/>
+      <c r="AB52" s="75"/>
+      <c r="AC52" s="75"/>
+      <c r="AD52" s="75"/>
+      <c r="AE52" s="75"/>
+      <c r="AF52" s="75"/>
+      <c r="AG52" s="75"/>
+      <c r="AH52" s="75"/>
+      <c r="AI52" s="75"/>
+      <c r="AJ52" s="78"/>
     </row>
     <row r="53" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="56" t="s">
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54" t="s">
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="56" t="s">
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54" t="s">
+      <c r="Z53" s="70"/>
+      <c r="AA53" s="70"/>
+      <c r="AB53" s="70"/>
+      <c r="AC53" s="70"/>
+      <c r="AD53" s="70"/>
+      <c r="AE53" s="70"/>
+      <c r="AF53" s="70"/>
+      <c r="AG53" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AH53" s="54"/>
-      <c r="AI53" s="54"/>
-      <c r="AJ53" s="57"/>
+      <c r="AH53" s="70"/>
+      <c r="AI53" s="70"/>
+      <c r="AJ53" s="71"/>
     </row>
     <row r="54" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -3745,104 +3760,104 @@
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54" t="s">
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="55"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="72"/>
       <c r="M54" s="23" t="s">
         <v>21</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
-      <c r="Q54" s="54" t="s">
+      <c r="Q54" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54" t="s">
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="57"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="71"/>
       <c r="Y54" s="23" t="s">
         <v>21</v>
       </c>
       <c r="Z54" s="22"/>
       <c r="AA54" s="22"/>
       <c r="AB54" s="22"/>
-      <c r="AC54" s="54" t="s">
+      <c r="AC54" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="54"/>
-      <c r="AG54" s="54" t="s">
+      <c r="AD54" s="70"/>
+      <c r="AE54" s="70"/>
+      <c r="AF54" s="70"/>
+      <c r="AG54" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AH54" s="54"/>
-      <c r="AI54" s="54"/>
-      <c r="AJ54" s="57"/>
+      <c r="AH54" s="70"/>
+      <c r="AI54" s="70"/>
+      <c r="AJ54" s="71"/>
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58" t="s">
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="59"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="93"/>
       <c r="M55" s="30"/>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
-      <c r="Q55" s="58" t="s">
+      <c r="Q55" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="58"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58" t="s">
+      <c r="R55" s="92"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="V55" s="58"/>
-      <c r="W55" s="58"/>
-      <c r="X55" s="60"/>
+      <c r="V55" s="92"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="94"/>
       <c r="Y55" s="30"/>
       <c r="Z55" s="29"/>
       <c r="AA55" s="29"/>
       <c r="AB55" s="29"/>
-      <c r="AC55" s="58" t="s">
+      <c r="AC55" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58" t="s">
+      <c r="AD55" s="92"/>
+      <c r="AE55" s="92"/>
+      <c r="AF55" s="92"/>
+      <c r="AG55" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="60"/>
+      <c r="AH55" s="92"/>
+      <c r="AI55" s="92"/>
+      <c r="AJ55" s="94"/>
     </row>
     <row r="56" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
@@ -3853,270 +3868,115 @@
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z57" s="45" t="s">
+      <c r="Z57" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="46"/>
-      <c r="AI57" s="46"/>
-      <c r="AJ57" s="46"/>
+      <c r="AA57" s="97"/>
+      <c r="AB57" s="97"/>
+      <c r="AC57" s="97"/>
+      <c r="AD57" s="97"/>
+      <c r="AE57" s="97"/>
+      <c r="AF57" s="97"/>
+      <c r="AG57" s="97"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="98"/>
+      <c r="AJ57" s="98"/>
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z58" s="45" t="s">
+      <c r="Z58" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="46"/>
-      <c r="AI58" s="46"/>
-      <c r="AJ58" s="46"/>
+      <c r="AA58" s="97"/>
+      <c r="AB58" s="97"/>
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="97"/>
+      <c r="AF58" s="97"/>
+      <c r="AG58" s="97"/>
+      <c r="AH58" s="98"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="98"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z59" s="47" t="s">
+      <c r="Z59" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="47"/>
-      <c r="AC59" s="47"/>
-      <c r="AD59" s="47"/>
-      <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="46"/>
-      <c r="AI59" s="46"/>
-      <c r="AJ59" s="46"/>
+      <c r="AA59" s="99"/>
+      <c r="AB59" s="99"/>
+      <c r="AC59" s="99"/>
+      <c r="AD59" s="99"/>
+      <c r="AE59" s="99"/>
+      <c r="AF59" s="99"/>
+      <c r="AG59" s="99"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="98"/>
+      <c r="AJ59" s="98"/>
     </row>
     <row r="60" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z60" s="43" t="s">
+      <c r="Z60" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AA60" s="43"/>
-      <c r="AB60" s="43"/>
-      <c r="AC60" s="43"/>
-      <c r="AD60" s="43"/>
-      <c r="AE60" s="43"/>
-      <c r="AF60" s="43"/>
-      <c r="AG60" s="43"/>
-      <c r="AH60" s="43"/>
-      <c r="AI60" s="43"/>
-      <c r="AJ60" s="43"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="95"/>
+      <c r="AD60" s="95"/>
+      <c r="AE60" s="95"/>
+      <c r="AF60" s="95"/>
+      <c r="AG60" s="95"/>
+      <c r="AH60" s="95"/>
+      <c r="AI60" s="95"/>
+      <c r="AJ60" s="95"/>
     </row>
     <row r="61" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Z61" s="44" t="s">
+      <c r="Z61" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AA61" s="44"/>
-      <c r="AB61" s="44"/>
-      <c r="AC61" s="44"/>
-      <c r="AD61" s="44"/>
-      <c r="AE61" s="44"/>
-      <c r="AF61" s="44"/>
-      <c r="AG61" s="44"/>
-      <c r="AH61" s="44"/>
-      <c r="AI61" s="44"/>
-      <c r="AJ61" s="44"/>
+      <c r="AA61" s="96"/>
+      <c r="AB61" s="96"/>
+      <c r="AC61" s="96"/>
+      <c r="AD61" s="96"/>
+      <c r="AE61" s="96"/>
+      <c r="AF61" s="96"/>
+      <c r="AG61" s="96"/>
+      <c r="AH61" s="96"/>
+      <c r="AI61" s="96"/>
+      <c r="AJ61" s="96"/>
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z62" s="44" t="s">
+      <c r="Z62" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="44"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="44"/>
-      <c r="AI62" s="44"/>
-      <c r="AJ62" s="44"/>
+      <c r="AA62" s="96"/>
+      <c r="AB62" s="96"/>
+      <c r="AC62" s="96"/>
+      <c r="AD62" s="96"/>
+      <c r="AE62" s="96"/>
+      <c r="AF62" s="96"/>
+      <c r="AG62" s="96"/>
+      <c r="AH62" s="96"/>
+      <c r="AI62" s="96"/>
+      <c r="AJ62" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A6:AH6"/>
-    <mergeCell ref="A7:AH7"/>
-    <mergeCell ref="A16:AJ16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:X37"/>
-    <mergeCell ref="Y37:AJ37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:X39"/>
-    <mergeCell ref="Y39:AJ39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AF40"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AG43"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AG45"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:X50"/>
-    <mergeCell ref="Y50:AJ50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="Z60:AJ60"/>
+    <mergeCell ref="Z61:AJ61"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="Z57:AG57"/>
+    <mergeCell ref="AH57:AJ57"/>
+    <mergeCell ref="Z58:AG58"/>
+    <mergeCell ref="AH58:AJ58"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="AH59:AJ59"/>
     <mergeCell ref="A52:L52"/>
     <mergeCell ref="M52:X52"/>
     <mergeCell ref="Y52:AJ52"/>
@@ -4138,15 +3998,170 @@
     <mergeCell ref="U54:X54"/>
     <mergeCell ref="AC54:AF54"/>
     <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="Z60:AJ60"/>
-    <mergeCell ref="Z61:AJ61"/>
-    <mergeCell ref="Z62:AJ62"/>
-    <mergeCell ref="Z57:AG57"/>
-    <mergeCell ref="AH57:AJ57"/>
-    <mergeCell ref="Z58:AG58"/>
-    <mergeCell ref="AH58:AJ58"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="AH59:AJ59"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:X50"/>
+    <mergeCell ref="Y50:AJ50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AG45"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AG43"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:X39"/>
+    <mergeCell ref="Y39:AJ39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:T40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Y40:AF40"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:X37"/>
+    <mergeCell ref="Y37:AJ37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A6:AH6"/>
+    <mergeCell ref="A7:AH7"/>
+    <mergeCell ref="A16:AJ16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
